--- a/筛菌情况/筛菌明细表.xlsx
+++ b/筛菌情况/筛菌明细表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\筛菌情况\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCCD47E-76E1-4C3A-93BB-5ED0B0D502CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE49FB-90A7-4031-8E80-244D301CCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1063,28 +1063,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,6 +1090,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1420,44 +1420,44 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1468,22 +1468,22 @@
       <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
@@ -1492,22 +1492,22 @@
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
@@ -1516,22 +1516,22 @@
       <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="N5" s="10"/>
       <c r="O5" s="12" t="s">
         <v>205</v>
@@ -1544,18 +1544,18 @@
       <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="N6" s="10"/>
       <c r="O6" s="13" t="s">
         <v>204</v>
@@ -1568,22 +1568,22 @@
       <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="C7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="N7" s="10"/>
       <c r="O7" s="11" t="s">
         <v>202</v>
@@ -1596,26 +1596,26 @@
       <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="H8" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
@@ -1624,23 +1624,23 @@
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="O9" s="26" t="s">
+      <c r="C9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="O9" s="20" t="s">
         <v>224</v>
       </c>
     </row>
@@ -1651,27 +1651,27 @@
       <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="O10" s="27" t="s">
+      <c r="H10" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="O10" s="21" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1682,23 +1682,23 @@
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="O11" s="30" t="s">
+      <c r="C11" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="O11" s="24" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1709,26 +1709,26 @@
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
@@ -1737,18 +1737,18 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
@@ -1757,22 +1757,22 @@
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -1781,22 +1781,22 @@
       <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -1805,22 +1805,22 @@
       <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="C16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
@@ -1829,22 +1829,22 @@
       <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="C17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
@@ -1853,22 +1853,22 @@
       <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="C18" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
@@ -1877,22 +1877,22 @@
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="E19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
@@ -1901,22 +1901,22 @@
       <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="C20" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
@@ -1925,24 +1925,24 @@
       <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
@@ -1951,22 +1951,22 @@
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="C22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
@@ -1975,22 +1975,22 @@
       <c r="B23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="C23" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
@@ -1999,22 +1999,22 @@
       <c r="B24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
@@ -2023,22 +2023,22 @@
       <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
@@ -2047,22 +2047,22 @@
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="C26" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
@@ -2071,18 +2071,18 @@
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="C27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
@@ -2091,22 +2091,22 @@
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="C28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
@@ -2115,22 +2115,22 @@
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="C29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
@@ -2139,22 +2139,22 @@
       <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="E30" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
@@ -2163,18 +2163,18 @@
       <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="C31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
@@ -2183,20 +2183,20 @@
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="C32" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
@@ -2205,18 +2205,18 @@
       <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="C33" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
@@ -2225,26 +2225,26 @@
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="C34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="H34" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
@@ -2253,22 +2253,22 @@
       <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="C35" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
@@ -2277,19 +2277,19 @@
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="C36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
@@ -2298,26 +2298,26 @@
       <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="C37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H37" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="H37" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
@@ -2326,22 +2326,22 @@
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="C38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
@@ -2350,22 +2350,22 @@
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="C39" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
@@ -2374,22 +2374,22 @@
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="E40" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
@@ -2398,22 +2398,22 @@
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="C41" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
@@ -2422,24 +2422,24 @@
       <c r="B42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="C42" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
@@ -2448,22 +2448,22 @@
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="C43" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
@@ -2472,26 +2472,26 @@
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="E44" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
@@ -2500,26 +2500,26 @@
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="24" t="s">
+      <c r="C45" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
@@ -2528,22 +2528,22 @@
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="C46" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
@@ -2552,22 +2552,22 @@
       <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="C47" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="F47" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
@@ -2576,22 +2576,22 @@
       <c r="B48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="C48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
@@ -2600,26 +2600,26 @@
       <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
@@ -2628,26 +2628,26 @@
       <c r="B50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="17" t="s">
+      <c r="E50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
@@ -2656,22 +2656,22 @@
       <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="C51" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
@@ -2680,22 +2680,22 @@
       <c r="B52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="C52" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
@@ -2704,32 +2704,32 @@
       <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -2738,14 +2738,14 @@
       <c r="B55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -2754,14 +2754,14 @@
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
@@ -2770,14 +2770,14 @@
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -2786,14 +2786,14 @@
       <c r="B58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
@@ -2802,14 +2802,14 @@
       <c r="B59" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -2818,14 +2818,14 @@
       <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
@@ -2834,14 +2834,14 @@
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -2850,14 +2850,14 @@
       <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -2866,14 +2866,14 @@
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -2882,16 +2882,16 @@
       <c r="B64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">

--- a/筛菌情况/筛菌明细表.xlsx
+++ b/筛菌情况/筛菌明细表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\筛菌情况\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE49FB-90A7-4031-8E80-244D301CCBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75EC547-8D65-4BA6-9619-E11199010E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="233">
   <si>
     <t>领菌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,26 @@
   </si>
   <si>
     <t>MRS板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSR液体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象：从保菌管取菌液到MRS板上划线时，生长情况良好。从MRS板上挑取单菌落液接到MRS液体上时，基本都没有生长。分析：接种环挑取的菌落太小，且液体接种到MRS培养基时，实际接种量很低，导致结果不好。计划再领一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-PCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸片球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1026,6 +1046,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1034,7 +1134,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1108,6 +1208,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1395,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1407,13 +1539,16 @@
     <col min="2" max="2" width="10.08203125" customWidth="1"/>
     <col min="3" max="3" width="6.58203125" customWidth="1"/>
     <col min="4" max="4" width="8.58203125" customWidth="1"/>
-    <col min="5" max="7" width="6.58203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="7" width="6.58203125" customWidth="1"/>
     <col min="8" max="8" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.58203125" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="6.58203125" customWidth="1"/>
+    <col min="16" max="16" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1429,9 +1564,10 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -1458,10 +1594,13 @@
         <v>210</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1484,8 +1623,9 @@
       <c r="H3" s="17"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1508,8 +1648,9 @@
       <c r="H4" s="17"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,12 +1673,13 @@
       <c r="H5" s="17"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="12" t="s">
+      <c r="K5" s="14"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1556,12 +1698,13 @@
       <c r="H6" s="17"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13" t="s">
+      <c r="K6" s="14"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1584,12 +1727,13 @@
       <c r="H7" s="17"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K7" s="14"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1614,10 +1758,15 @@
       <c r="H8" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1640,11 +1789,12 @@
       <c r="H9" s="17"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="O9" s="20" t="s">
+      <c r="K9" s="14"/>
+      <c r="P9" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1669,13 +1819,18 @@
       <c r="H10" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="O10" s="21" t="s">
+      <c r="I10" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="P10" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1698,11 +1853,12 @@
       <c r="H11" s="17"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="O11" s="24" t="s">
+      <c r="K11" s="14"/>
+      <c r="P11" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1727,10 +1883,15 @@
       <c r="H12" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1749,8 +1910,9 @@
       <c r="H13" s="17"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1773,8 +1935,9 @@
       <c r="H14" s="17"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1797,8 +1960,9 @@
       <c r="H15" s="17"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1821,8 +1985,9 @@
       <c r="H16" s="17"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1845,8 +2010,9 @@
       <c r="H17" s="17"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1869,8 +2035,9 @@
       <c r="H18" s="17"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1893,8 +2060,9 @@
       <c r="H19" s="17"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1917,8 +2085,9 @@
       <c r="H20" s="17"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1941,10 +2110,15 @@
       <c r="H21" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I21" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1967,8 +2141,9 @@
       <c r="H22" s="17"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1991,8 +2166,9 @@
       <c r="H23" s="17"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -2015,8 +2191,9 @@
       <c r="H24" s="17"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2039,8 +2216,9 @@
       <c r="H25" s="17"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2241,9 @@
       <c r="H26" s="17"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2083,8 +2262,9 @@
       <c r="H27" s="17"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2107,8 +2287,9 @@
       <c r="H28" s="17"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2131,8 +2312,9 @@
       <c r="H29" s="17"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2155,8 +2337,9 @@
       <c r="H30" s="17"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2175,8 +2358,9 @@
       <c r="H31" s="17"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2197,8 +2381,9 @@
       <c r="H32" s="17"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2217,8 +2402,9 @@
       <c r="H33" s="17"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2243,10 +2429,15 @@
       <c r="H34" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I34" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2269,8 +2460,9 @@
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2290,8 +2482,9 @@
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2316,10 +2509,15 @@
       <c r="H37" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I37" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2342,8 +2540,9 @@
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2366,8 +2565,9 @@
       <c r="H39" s="17"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2390,8 +2590,9 @@
       <c r="H40" s="17"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2414,8 +2615,9 @@
       <c r="H41" s="17"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2437,11 +2639,18 @@
       <c r="G42" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="H42" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2464,8 +2673,9 @@
       <c r="H43" s="17"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2490,10 +2700,15 @@
       <c r="H44" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I44" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2518,10 +2733,15 @@
       <c r="H45" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I45" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" t="s">
+        <v>232</v>
+      </c>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2544,8 +2764,9 @@
       <c r="H46" s="17"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2568,8 +2789,9 @@
       <c r="H47" s="17"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2592,8 +2814,9 @@
       <c r="H48" s="17"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2618,10 +2841,15 @@
       <c r="H49" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I49" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2646,10 +2874,15 @@
       <c r="H50" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="I50" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2672,8 +2905,9 @@
       <c r="H51" s="17"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2696,8 +2930,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>0</v>
       </c>
@@ -2713,9 +2948,10 @@
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
-      <c r="J53" s="27"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>198</v>
       </c>
@@ -2723,159 +2959,211 @@
       <c r="C54" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="36"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="36"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="36"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="36"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="39"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>110</v>
       </c>
@@ -2891,633 +3179,825 @@
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="29"/>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="C65" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="C66" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="C67" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="C68" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="C69" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="C70" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="C71" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="C75" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="C76" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="C78" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="C80" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="C81" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="C82" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="C83" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="C84" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+      <c r="C85" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="C86" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+      <c r="C87" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="C88" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="C89" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="C90" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="C91" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="C92" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="C93" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="C94" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="C95" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="C97" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="C98" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="C99" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="C101" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="C102" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C64:J64"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="E55:K63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O7 C3:C52 E3:E52" xr:uid="{FBFD0F9A-C34D-4CD5-B2E6-DB5E9C43DC46}">
-      <formula1>$O$5:$O$7</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 C65:C102 C55:C63 E3:E52 C3:C52" xr:uid="{FBFD0F9A-C34D-4CD5-B2E6-DB5E9C43DC46}">
+      <formula1>$P$5:$P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:J63 I3:J52 G35:G36 F37:G52 F3:G34 F35" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
-      <formula1>$O$5:$O$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D102 D55:D63 F35 F3:G34 F37:G52 G35:G36 I3:I52 K3:K52" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
+      <formula1>$P$5:$P$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" display="\\" xr:uid="{DCAC5B4C-010D-466A-A074-01C9A8979989}"/>
+    <hyperlink ref="P6" r:id="rId1" display="\\" xr:uid="{DCAC5B4C-010D-466A-A074-01C9A8979989}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/筛菌情况/筛菌明细表.xlsx
+++ b/筛菌情况/筛菌明细表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\筛菌情况\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75EC547-8D65-4BA6-9619-E11199010E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA48B08-D32D-4533-85B8-E1D439E36280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="338">
   <si>
     <t>领菌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,13 +646,6 @@
   </si>
   <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>➡</t>
-  </si>
-  <si>
-    <t>➡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -692,34 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生长状况：√生长良好；</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>➡</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生长；×未生长</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青春双歧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,34 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>生长状况：√生长良好；</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>➡</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生长；×未生长或生长很弱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粪便双歧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,15 +749,349 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现象：从保菌管取菌液到MRS板上划线时，生长情况良好。从MRS板上挑取单菌落液接到MRS液体上时，基本都没有生长。分析：接种环挑取的菌落太小，且液体接种到MRS培养基时，实际接种量很低，导致结果不好。计划再领一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-PCR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乳酸片球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短双歧-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短双歧-2</t>
+  </si>
+  <si>
+    <t>短双歧-3</t>
+  </si>
+  <si>
+    <t>短双歧-4</t>
+  </si>
+  <si>
+    <t>短双歧-5</t>
+  </si>
+  <si>
+    <t>短双歧-6</t>
+  </si>
+  <si>
+    <t>短双歧-7</t>
+  </si>
+  <si>
+    <t>短双歧-8</t>
+  </si>
+  <si>
+    <t>短双歧-9</t>
+  </si>
+  <si>
+    <t>短双歧-10</t>
+  </si>
+  <si>
+    <t>短双歧-11</t>
+  </si>
+  <si>
+    <t>短双歧-12</t>
+  </si>
+  <si>
+    <t>短双歧-13</t>
+  </si>
+  <si>
+    <t>短双歧-14</t>
+  </si>
+  <si>
+    <t>短双歧-15</t>
+  </si>
+  <si>
+    <t>短双歧-16</t>
+  </si>
+  <si>
+    <t>短双歧-17</t>
+  </si>
+  <si>
+    <t>短双歧-18</t>
+  </si>
+  <si>
+    <t>短双歧-19</t>
+  </si>
+  <si>
+    <t>短双歧-20</t>
+  </si>
+  <si>
+    <t>短双歧-21</t>
+  </si>
+  <si>
+    <t>短双歧-22</t>
+  </si>
+  <si>
+    <t>短双歧-23</t>
+  </si>
+  <si>
+    <t>短双歧-24</t>
+  </si>
+  <si>
+    <t>短双歧-25</t>
+  </si>
+  <si>
+    <t>短双歧-26</t>
+  </si>
+  <si>
+    <t>短双歧-27</t>
+  </si>
+  <si>
+    <t>短双歧-28</t>
+  </si>
+  <si>
+    <t>短双歧-29</t>
+  </si>
+  <si>
+    <t>短双歧-30</t>
+  </si>
+  <si>
+    <t>短双歧-31</t>
+  </si>
+  <si>
+    <t>短双歧-32</t>
+  </si>
+  <si>
+    <t>短双歧-33</t>
+  </si>
+  <si>
+    <t>短双歧-34</t>
+  </si>
+  <si>
+    <t>短双歧-35</t>
+  </si>
+  <si>
+    <t>短双歧-36</t>
+  </si>
+  <si>
+    <t>短双歧-37</t>
+  </si>
+  <si>
+    <t>短双歧-38</t>
+  </si>
+  <si>
+    <t>短双歧-39</t>
+  </si>
+  <si>
+    <t>短双歧-40</t>
+  </si>
+  <si>
+    <t>短双歧-41</t>
+  </si>
+  <si>
+    <t>短双歧-42</t>
+  </si>
+  <si>
+    <t>短双歧-43</t>
+  </si>
+  <si>
+    <t>短双歧-44</t>
+  </si>
+  <si>
+    <t>短双歧-45</t>
+  </si>
+  <si>
+    <t>短双歧-46</t>
+  </si>
+  <si>
+    <t>短双歧-47</t>
+  </si>
+  <si>
+    <t>短双歧-48</t>
+  </si>
+  <si>
+    <t>短双歧-49</t>
+  </si>
+  <si>
+    <t>短双歧-50</t>
+  </si>
+  <si>
+    <t>B161</t>
+  </si>
+  <si>
+    <t>FCQNA20M1</t>
+  </si>
+  <si>
+    <t>FFJXM2M1</t>
+  </si>
+  <si>
+    <t>FGZ18I1M1</t>
+  </si>
+  <si>
+    <t>FGZ18I1M6</t>
+  </si>
+  <si>
+    <t>FGZ18I2M1</t>
+  </si>
+  <si>
+    <t>FGZ19I1M4</t>
+  </si>
+  <si>
+    <t>FGZ19I1M6</t>
+  </si>
+  <si>
+    <t>FGZ19I2M1</t>
+  </si>
+  <si>
+    <t>FGZ23I1M6</t>
+  </si>
+  <si>
+    <t>FGZ23I2M1</t>
+  </si>
+  <si>
+    <t>FGZ35I1M1</t>
+  </si>
+  <si>
+    <t>FGZ35I2M1</t>
+  </si>
+  <si>
+    <t>FGZ39I2M1</t>
+  </si>
+  <si>
+    <t>FGZ39MM6</t>
+  </si>
+  <si>
+    <t>FGZ3I1M6</t>
+  </si>
+  <si>
+    <t>FGZ3I2M1</t>
+  </si>
+  <si>
+    <t>FGZ6I2M1</t>
+  </si>
+  <si>
+    <t>FGZ9I2M1</t>
+  </si>
+  <si>
+    <t>FHuNaL441</t>
+  </si>
+  <si>
+    <t>FJSSZ5M9</t>
+  </si>
+  <si>
+    <t>FJSSZ6M10</t>
+  </si>
+  <si>
+    <t>FJSSZ8M2</t>
+  </si>
+  <si>
+    <t>FJSWXBB14M8</t>
+  </si>
+  <si>
+    <t>FJSWXBB20M1</t>
+  </si>
+  <si>
+    <t>FJSWXBB22M12</t>
+  </si>
+  <si>
+    <t>FJSWXBB22M22</t>
+  </si>
+  <si>
+    <t>FJSWXBB25M7</t>
+  </si>
+  <si>
+    <t>FJSWXBB26M10</t>
+  </si>
+  <si>
+    <t>FJSWXBB27M1</t>
+  </si>
+  <si>
+    <t>FJSWXBB27M16</t>
+  </si>
+  <si>
+    <t>FJSWXBB29M6</t>
+  </si>
+  <si>
+    <t>FJSWXBB30M4</t>
+  </si>
+  <si>
+    <t>FJSWXBB30M5</t>
+  </si>
+  <si>
+    <t>FJSWXBB5M8</t>
+  </si>
+  <si>
+    <t>FJSWXBB7M8</t>
+  </si>
+  <si>
+    <t>FJSZJ2M2</t>
+  </si>
+  <si>
+    <t>FNXHL2M2</t>
+  </si>
+  <si>
+    <t>FNXHL8M4</t>
+  </si>
+  <si>
+    <t>FQHXN5M2</t>
+  </si>
+  <si>
+    <t>FSHMX2M1</t>
+  </si>
+  <si>
+    <t>FSHXXA1M1</t>
+  </si>
+  <si>
+    <t>FZJJH10M6</t>
+  </si>
+  <si>
+    <t>FZJJH9M2</t>
+  </si>
+  <si>
+    <t>JSSZ7M1</t>
+  </si>
+  <si>
+    <t>M207F01M63</t>
+  </si>
+  <si>
+    <t>MRJSWX65M18</t>
+  </si>
+  <si>
+    <t>NMGCF1M12</t>
+  </si>
+  <si>
+    <t>NMGEL2M1</t>
+  </si>
+  <si>
+    <t>孙小冉13=SXR13</t>
+  </si>
+  <si>
+    <t>FA平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长状况：√生长良好；⮕⮕生长；×未生长或生长很弱</t>
+  </si>
+  <si>
+    <t>⮕⮕</t>
+  </si>
+  <si>
+    <t>生长状况：√生长良好；⮕⮕生长；×未生长</t>
+  </si>
+  <si>
+    <t>现象：从保菌管取菌液到MRS板上划线时，生长情况良好。从MRS板上挑取单菌落液接到MRS液体上时，基本都没有生长。分析：接种环挑取的菌落太小，且液体接种到MRS培养基时，实际接种量很低，导致结果不好。计划重做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRS液体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA-1代-4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做第一第二批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,19 +1186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Segoe UI Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
@@ -947,8 +1205,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,8 +1256,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1126,6 +1403,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1134,7 +1448,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1162,7 +1476,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,14 +1495,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1235,11 +1553,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1527,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1545,59 +1902,70 @@
     <col min="9" max="9" width="6.58203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="6.58203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" customWidth="1"/>
     <col min="16" max="16" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="57" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="J2" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>211</v>
+      <c r="L2" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1607,23 +1975,23 @@
       <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
@@ -1632,23 +2000,23 @@
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
@@ -1657,26 +2025,26 @@
       <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="O5" s="10"/>
       <c r="P5" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1686,22 +2054,22 @@
       <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="C6" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="13" t="s">
-        <v>204</v>
+      <c r="P6" s="44" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1711,23 +2079,23 @@
       <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="O7" s="10"/>
       <c r="P7" s="11" t="s">
         <v>202</v>
@@ -1740,31 +2108,31 @@
       <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
@@ -1773,25 +2141,25 @@
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="P9" s="20" t="s">
-        <v>224</v>
+      <c r="C9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="P9" s="19" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1801,33 +2169,36 @@
       <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="P10" s="21" t="s">
-        <v>225</v>
+      <c r="C10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1837,25 +2208,25 @@
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="P11" s="24" t="s">
-        <v>226</v>
+      <c r="C11" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="P11" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
@@ -1865,31 +2236,34 @@
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
@@ -1898,19 +2272,19 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="C13" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
@@ -1919,23 +2293,23 @@
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -1944,23 +2318,23 @@
       <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="C15" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -1969,1230 +2343,1296 @@
       <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C16" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C17" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C18" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C20" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="C21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C22" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C23" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C24" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C25" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C26" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C27" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C28" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C29" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C30" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C32" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C33" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C34" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C35" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C36" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C37" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C38" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C39" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C40" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C41" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C42" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C43" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I44" s="14" t="s">
+      <c r="C44" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>201</v>
       </c>
       <c r="J44" t="s">
-        <v>232</v>
-      </c>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="C45" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>201</v>
       </c>
       <c r="J45" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C46" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C47" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C48" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J49" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C49" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C50" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C51" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C52" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C54" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M54" s="42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C55" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="36"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C56" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C57" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="36"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C58" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C59" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C60" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C61" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="36"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C62" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C63" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="30"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E65" s="5"/>
@@ -3202,18 +3642,22 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L65" s="54"/>
+      <c r="M65" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="C66" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E66" s="5"/>
@@ -3223,18 +3667,22 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L66" s="54"/>
+      <c r="M66" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="C67" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E67" s="5"/>
@@ -3244,18 +3692,22 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L67" s="54"/>
+      <c r="M67" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="C68" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E68" s="5"/>
@@ -3265,18 +3717,22 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L68" s="54"/>
+      <c r="M68" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="C69" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E69" s="5"/>
@@ -3286,18 +3742,22 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L69" s="54"/>
+      <c r="M69" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="14" t="s">
+      <c r="C70" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E70" s="5"/>
@@ -3307,18 +3767,22 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L70" s="54"/>
+      <c r="M70" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="14" t="s">
+      <c r="C71" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E71" s="5"/>
@@ -3328,18 +3792,22 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L71" s="54"/>
+      <c r="M71" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="C72" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E72" s="5"/>
@@ -3349,18 +3817,22 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L72" s="54"/>
+      <c r="M72" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E73" s="5"/>
@@ -3370,18 +3842,22 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L73" s="54"/>
+      <c r="M73" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="14" t="s">
+      <c r="C74" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E74" s="5"/>
@@ -3391,18 +3867,22 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L74" s="54"/>
+      <c r="M74" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E75" s="5"/>
@@ -3412,18 +3892,22 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L75" s="54"/>
+      <c r="M75" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E76" s="5"/>
@@ -3433,18 +3917,22 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L76" s="54"/>
+      <c r="M76" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E77" s="5"/>
@@ -3454,18 +3942,22 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L77" s="54"/>
+      <c r="M77" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E78" s="5"/>
@@ -3475,18 +3967,22 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L78" s="54"/>
+      <c r="M78" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E79" s="5"/>
@@ -3496,18 +3992,22 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L79" s="54"/>
+      <c r="M79" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E80" s="5"/>
@@ -3517,18 +4017,22 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L80" s="54"/>
+      <c r="M80" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="14" t="s">
+      <c r="C81" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E81" s="5"/>
@@ -3538,18 +4042,22 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L81" s="54"/>
+      <c r="M81" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D82" s="14" t="s">
+      <c r="C82" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E82" s="5"/>
@@ -3559,18 +4067,22 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L82" s="54"/>
+      <c r="M82" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" s="14" t="s">
+      <c r="C83" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E83" s="5"/>
@@ -3580,18 +4092,22 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L83" s="54"/>
+      <c r="M83" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E84" s="5"/>
@@ -3601,18 +4117,22 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L84" s="54"/>
+      <c r="M84" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="14" t="s">
+      <c r="C85" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E85" s="5"/>
@@ -3622,18 +4142,22 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L85" s="54"/>
+      <c r="M85" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D86" s="14" t="s">
+      <c r="C86" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E86" s="5"/>
@@ -3643,18 +4167,22 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L86" s="54"/>
+      <c r="M86" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="14" t="s">
+      <c r="C87" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E87" s="5"/>
@@ -3664,18 +4192,22 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L87" s="54"/>
+      <c r="M87" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D88" s="14" t="s">
+      <c r="C88" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E88" s="5"/>
@@ -3685,18 +4217,22 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L88" s="54"/>
+      <c r="M88" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D89" s="14" t="s">
+      <c r="C89" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E89" s="5"/>
@@ -3706,18 +4242,22 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L89" s="54"/>
+      <c r="M89" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="14" t="s">
+      <c r="C90" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E90" s="5"/>
@@ -3727,18 +4267,22 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L90" s="54"/>
+      <c r="M90" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="14" t="s">
+      <c r="C91" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E91" s="5"/>
@@ -3748,18 +4292,22 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L91" s="54"/>
+      <c r="M91" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D92" s="14" t="s">
+      <c r="C92" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E92" s="5"/>
@@ -3769,18 +4317,22 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L92" s="54"/>
+      <c r="M92" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E93" s="5"/>
@@ -3790,18 +4342,22 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L93" s="54"/>
+      <c r="M93" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" s="14" t="s">
+      <c r="C94" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E94" s="5"/>
@@ -3811,18 +4367,22 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L94" s="54"/>
+      <c r="M94" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="14" t="s">
+      <c r="C95" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E95" s="5"/>
@@ -3832,18 +4392,22 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L95" s="54"/>
+      <c r="M95" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D96" s="14" t="s">
+      <c r="C96" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E96" s="5"/>
@@ -3853,18 +4417,22 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L96" s="54"/>
+      <c r="M96" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D97" s="14" t="s">
+      <c r="C97" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E97" s="5"/>
@@ -3874,18 +4442,22 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L97" s="54"/>
+      <c r="M97" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="14" t="s">
+      <c r="C98" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E98" s="5"/>
@@ -3895,18 +4467,22 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L98" s="54"/>
+      <c r="M98" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" s="14" t="s">
+      <c r="C99" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E99" s="5"/>
@@ -3916,18 +4492,22 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L99" s="54"/>
+      <c r="M99" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="14" t="s">
+      <c r="C100" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E100" s="5"/>
@@ -3937,18 +4517,22 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L100" s="54"/>
+      <c r="M100" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="14" t="s">
+      <c r="C101" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E101" s="5"/>
@@ -3958,18 +4542,22 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L101" s="54"/>
+      <c r="M101" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E102" s="5"/>
@@ -3979,20 +4567,1123 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+    </row>
+    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+    </row>
+    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="47"/>
+      <c r="D106" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="48"/>
+      <c r="N106" s="45"/>
+    </row>
+    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="47"/>
+      <c r="D107" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="48"/>
+    </row>
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="47"/>
+      <c r="D108" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+    </row>
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="47"/>
+      <c r="D109" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+    </row>
+    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="47"/>
+      <c r="D110" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+    </row>
+    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="47"/>
+      <c r="D111" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+    </row>
+    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="47"/>
+      <c r="D112" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="47"/>
+      <c r="D113" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="48"/>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="47"/>
+      <c r="D115" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="48"/>
+      <c r="K115" s="48"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="47"/>
+      <c r="D116" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="K116" s="48"/>
+    </row>
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="47"/>
+      <c r="D117" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="48"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="47"/>
+      <c r="D118" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="47"/>
+      <c r="D119" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="47"/>
+      <c r="D120" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="47"/>
+      <c r="D121" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E121" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="47"/>
+      <c r="D122" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E122" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="47"/>
+      <c r="D123" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="47"/>
+      <c r="D124" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E124" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="47"/>
+      <c r="D125" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="48"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="47"/>
+      <c r="D126" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="47"/>
+      <c r="D127" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="48"/>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="47"/>
+      <c r="D128" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="E128" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="48"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="47"/>
+      <c r="D129" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="47"/>
+      <c r="D130" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="48"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="47"/>
+      <c r="D131" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="48"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" s="47"/>
+      <c r="D132" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="48"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" s="47"/>
+      <c r="D133" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="48"/>
+      <c r="K133" s="48"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" s="47"/>
+      <c r="D134" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48"/>
+      <c r="J134" s="48"/>
+      <c r="K134" s="48"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="47"/>
+      <c r="D135" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="48"/>
+      <c r="K135" s="48"/>
+    </row>
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="47"/>
+      <c r="D136" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="48"/>
+      <c r="J136" s="48"/>
+      <c r="K136" s="48"/>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="47"/>
+      <c r="D137" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
+      <c r="J137" s="48"/>
+      <c r="K137" s="48"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" s="47"/>
+      <c r="D138" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="48"/>
+      <c r="K138" s="48"/>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="47"/>
+      <c r="D139" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E139" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="48"/>
+      <c r="K139" s="48"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" s="47"/>
+      <c r="D140" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="48"/>
+      <c r="K140" s="48"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="47"/>
+      <c r="D141" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E141" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48"/>
+      <c r="K141" s="48"/>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" s="47"/>
+      <c r="D142" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="48"/>
+      <c r="J142" s="48"/>
+      <c r="K142" s="48"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" s="47"/>
+      <c r="D143" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="48"/>
+      <c r="K143" s="48"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" s="47"/>
+      <c r="D144" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="48"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B145" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="47"/>
+      <c r="D145" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E145" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="48"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" s="47"/>
+      <c r="D146" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="48"/>
+      <c r="K146" s="48"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B147" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C147" s="47"/>
+      <c r="D147" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E147" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="48"/>
+      <c r="K147" s="48"/>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="47"/>
+      <c r="D148" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
+      <c r="J148" s="48"/>
+      <c r="K148" s="48"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B149" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" s="47"/>
+      <c r="D149" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="48"/>
+      <c r="J149" s="48"/>
+      <c r="K149" s="48"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" s="47"/>
+      <c r="D150" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E150" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F150" s="48"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="48"/>
+      <c r="J150" s="48"/>
+      <c r="K150" s="48"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C151" s="47"/>
+      <c r="D151" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="48"/>
+      <c r="K151" s="48"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B152" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" s="47"/>
+      <c r="D152" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E152" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
+      <c r="J152" s="48"/>
+      <c r="K152" s="48"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="47"/>
+      <c r="D153" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48"/>
+      <c r="J153" s="48"/>
+      <c r="K153" s="48"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="47"/>
+      <c r="D154" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E154" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
+      <c r="J154" s="48"/>
+      <c r="K154" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="C105:C154"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="L55:L102"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C53:K53"/>
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="E55:K63"/>
+    <mergeCell ref="C103:K103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 C65:C102 C55:C63 E3:E52 C3:C52" xr:uid="{FBFD0F9A-C34D-4CD5-B2E6-DB5E9C43DC46}">
       <formula1>$P$5:$P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D102 D55:D63 F35 F3:G34 F37:G52 G35:G36 I3:I52 K3:K52" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D102 D55:D63 F35 F3:G34 F37:G52 G35:G36 I3:I52 K3:K52 D105:E154 M65:M102 M55:M63 L10 L12 L21 L37 L42 L44:L45 L50" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
       <formula1>$P$5:$P$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/筛菌情况/筛菌明细表.xlsx
+++ b/筛菌情况/筛菌明细表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\筛菌情况\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA48B08-D32D-4533-85B8-E1D439E36280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E62D3-2734-426E-AFC6-ABDCE6A43432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="339">
   <si>
     <t>领菌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,10 +1079,6 @@
     <t>生长状况：√生长良好；⮕⮕生长；×未生长</t>
   </si>
   <si>
-    <t>现象：从保菌管取菌液到MRS板上划线时，生长情况良好。从MRS板上挑取单菌落液接到MRS液体上时，基本都没有生长。分析：接种环挑取的菌落太小，且液体接种到MRS培养基时，实际接种量很低，导致结果不好。计划重做。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MRS液体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,6 +1088,14 @@
   </si>
   <si>
     <t>重做第一第二批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未领到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象：从保菌管取菌液到MRS板上划线时，生长情况良好。从MRS板上挑取单菌落液接到MRS液体上时，基本都没有生长。分析：接种环挑取的菌落太小，且液体接种到MRS培养基时，实际接种量很低，导致结果不好。计划重做。第一批第二批计划重做，第一批选择之前具有产叶酸潜力的菌（来自保菌管+被污染的FA液体），第二批选择放在室温2天的保菌管。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,7 +1452,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1508,14 +1512,37 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1524,6 +1551,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,49 +1598,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1886,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1914,19 +1927,19 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="57" t="s">
-        <v>337</v>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="37" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1961,10 +1974,10 @@
       <c r="K2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="36" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2031,7 +2044,7 @@
       <c r="D5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="28" t="s">
         <v>332</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -2068,7 +2081,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="29" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3331,17 +3344,17 @@
       <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="47"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
@@ -3354,20 +3367,20 @@
       <c r="D54" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="42" t="s">
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="M54" s="27" t="s">
         <v>335</v>
-      </c>
-      <c r="M54" s="42" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
@@ -3383,16 +3396,16 @@
       <c r="D55" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="53" t="s">
+      <c r="E55" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="42" t="s">
         <v>330</v>
       </c>
       <c r="M55" s="13" t="s">
@@ -3412,14 +3425,14 @@
       <c r="D56" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="54"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="43"/>
       <c r="M56" s="13" t="s">
         <v>202</v>
       </c>
@@ -3437,14 +3450,14 @@
       <c r="D57" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="54"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="43"/>
       <c r="M57" s="13" t="s">
         <v>332</v>
       </c>
@@ -3462,14 +3475,14 @@
       <c r="D58" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="54"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="43"/>
       <c r="M58" s="13" t="s">
         <v>201</v>
       </c>
@@ -3487,14 +3500,14 @@
       <c r="D59" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="54"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="43"/>
       <c r="M59" s="13" t="s">
         <v>201</v>
       </c>
@@ -3512,14 +3525,14 @@
       <c r="D60" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="54"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="43"/>
       <c r="M60" s="13" t="s">
         <v>332</v>
       </c>
@@ -3537,14 +3550,14 @@
       <c r="D61" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="54"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="43"/>
       <c r="M61" s="13" t="s">
         <v>332</v>
       </c>
@@ -3562,14 +3575,14 @@
       <c r="D62" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="54"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="43"/>
       <c r="M62" s="13" t="s">
         <v>201</v>
       </c>
@@ -3587,14 +3600,14 @@
       <c r="D63" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="43"/>
       <c r="M63" s="13" t="s">
         <v>201</v>
       </c>
@@ -3606,18 +3619,18 @@
       <c r="B64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="54"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="43"/>
       <c r="M64" s="14" t="s">
         <v>124</v>
       </c>
@@ -3642,7 +3655,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="54"/>
+      <c r="L65" s="43"/>
       <c r="M65" s="13" t="s">
         <v>332</v>
       </c>
@@ -3667,7 +3680,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="54"/>
+      <c r="L66" s="43"/>
       <c r="M66" s="13" t="s">
         <v>202</v>
       </c>
@@ -3692,7 +3705,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="54"/>
+      <c r="L67" s="43"/>
       <c r="M67" s="13" t="s">
         <v>202</v>
       </c>
@@ -3717,7 +3730,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="54"/>
+      <c r="L68" s="43"/>
       <c r="M68" s="13" t="s">
         <v>202</v>
       </c>
@@ -3742,7 +3755,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="54"/>
+      <c r="L69" s="43"/>
       <c r="M69" s="13" t="s">
         <v>332</v>
       </c>
@@ -3767,7 +3780,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="54"/>
+      <c r="L70" s="43"/>
       <c r="M70" s="13" t="s">
         <v>202</v>
       </c>
@@ -3792,7 +3805,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="54"/>
+      <c r="L71" s="43"/>
       <c r="M71" s="13" t="s">
         <v>332</v>
       </c>
@@ -3817,7 +3830,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="54"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="13" t="s">
         <v>201</v>
       </c>
@@ -3842,7 +3855,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="54"/>
+      <c r="L73" s="43"/>
       <c r="M73" s="13" t="s">
         <v>332</v>
       </c>
@@ -3867,7 +3880,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="54"/>
+      <c r="L74" s="43"/>
       <c r="M74" s="13" t="s">
         <v>202</v>
       </c>
@@ -3892,7 +3905,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="54"/>
+      <c r="L75" s="43"/>
       <c r="M75" s="13" t="s">
         <v>201</v>
       </c>
@@ -3917,7 +3930,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="54"/>
+      <c r="L76" s="43"/>
       <c r="M76" s="13" t="s">
         <v>202</v>
       </c>
@@ -3942,7 +3955,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="54"/>
+      <c r="L77" s="43"/>
       <c r="M77" s="13" t="s">
         <v>201</v>
       </c>
@@ -3967,7 +3980,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="54"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="13" t="s">
         <v>201</v>
       </c>
@@ -3992,7 +4005,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="54"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="13" t="s">
         <v>201</v>
       </c>
@@ -4017,7 +4030,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="54"/>
+      <c r="L80" s="43"/>
       <c r="M80" s="13" t="s">
         <v>332</v>
       </c>
@@ -4042,7 +4055,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="54"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="13" t="s">
         <v>332</v>
       </c>
@@ -4067,7 +4080,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="54"/>
+      <c r="L82" s="43"/>
       <c r="M82" s="13" t="s">
         <v>202</v>
       </c>
@@ -4092,7 +4105,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="54"/>
+      <c r="L83" s="43"/>
       <c r="M83" s="13" t="s">
         <v>332</v>
       </c>
@@ -4117,7 +4130,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="54"/>
+      <c r="L84" s="43"/>
       <c r="M84" s="13" t="s">
         <v>201</v>
       </c>
@@ -4142,7 +4155,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="54"/>
+      <c r="L85" s="43"/>
       <c r="M85" s="13" t="s">
         <v>201</v>
       </c>
@@ -4167,7 +4180,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="54"/>
+      <c r="L86" s="43"/>
       <c r="M86" s="13" t="s">
         <v>201</v>
       </c>
@@ -4192,7 +4205,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="54"/>
+      <c r="L87" s="43"/>
       <c r="M87" s="13" t="s">
         <v>332</v>
       </c>
@@ -4217,7 +4230,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="54"/>
+      <c r="L88" s="43"/>
       <c r="M88" s="13" t="s">
         <v>332</v>
       </c>
@@ -4242,7 +4255,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="54"/>
+      <c r="L89" s="43"/>
       <c r="M89" s="13" t="s">
         <v>332</v>
       </c>
@@ -4267,7 +4280,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="54"/>
+      <c r="L90" s="43"/>
       <c r="M90" s="13" t="s">
         <v>201</v>
       </c>
@@ -4292,7 +4305,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="54"/>
+      <c r="L91" s="43"/>
       <c r="M91" s="13" t="s">
         <v>332</v>
       </c>
@@ -4317,7 +4330,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="54"/>
+      <c r="L92" s="43"/>
       <c r="M92" s="13" t="s">
         <v>332</v>
       </c>
@@ -4342,7 +4355,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="54"/>
+      <c r="L93" s="43"/>
       <c r="M93" s="13" t="s">
         <v>332</v>
       </c>
@@ -4367,7 +4380,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="54"/>
+      <c r="L94" s="43"/>
       <c r="M94" s="13" t="s">
         <v>332</v>
       </c>
@@ -4392,7 +4405,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="54"/>
+      <c r="L95" s="43"/>
       <c r="M95" s="13" t="s">
         <v>332</v>
       </c>
@@ -4417,7 +4430,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="54"/>
+      <c r="L96" s="43"/>
       <c r="M96" s="13" t="s">
         <v>332</v>
       </c>
@@ -4442,7 +4455,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="54"/>
+      <c r="L97" s="43"/>
       <c r="M97" s="13" t="s">
         <v>332</v>
       </c>
@@ -4467,7 +4480,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="54"/>
+      <c r="L98" s="43"/>
       <c r="M98" s="13" t="s">
         <v>202</v>
       </c>
@@ -4492,7 +4505,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="54"/>
+      <c r="L99" s="43"/>
       <c r="M99" s="13" t="s">
         <v>332</v>
       </c>
@@ -4517,7 +4530,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="54"/>
+      <c r="L100" s="43"/>
       <c r="M100" s="13" t="s">
         <v>202</v>
       </c>
@@ -4542,7 +4555,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="54"/>
+      <c r="L101" s="43"/>
       <c r="M101" s="13" t="s">
         <v>201</v>
       </c>
@@ -4567,7 +4580,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="55"/>
+      <c r="L102" s="44"/>
       <c r="M102" s="13" t="s">
         <v>201</v>
       </c>
@@ -4579,1096 +4592,1092 @@
       <c r="B103" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="46" t="s">
+      <c r="C103" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49" t="s">
+      <c r="B104" s="31"/>
+      <c r="C104" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="E104" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F104" s="48" t="s">
+      <c r="F104" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-    </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+    </row>
+    <row r="105" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C105" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E105" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
+      <c r="D105" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="60"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E106" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="48"/>
-      <c r="N106" s="45"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="60"/>
+      <c r="N106" s="30"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E107" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="48"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E108" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="48"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E109" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E110" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E111" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E112" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="48"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E113" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="48"/>
-      <c r="J113" s="48"/>
-      <c r="K113" s="48"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
-      <c r="K114" s="48"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E114" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E115" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E116" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="48"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="48"/>
-      <c r="I117" s="48"/>
-      <c r="J117" s="48"/>
-      <c r="K117" s="48"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="B118" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="E118" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="48"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E119" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
-      <c r="K119" s="48"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="47"/>
-      <c r="D120" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-      <c r="J120" s="48"/>
-      <c r="K120" s="48"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C121" s="47"/>
-      <c r="D121" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E121" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="47"/>
-      <c r="D122" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E122" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B123" s="50" t="s">
+      <c r="B123" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="47"/>
-      <c r="D123" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E123" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="48"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B124" s="50" t="s">
+      <c r="B124" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="47"/>
-      <c r="D124" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E124" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="48"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="47"/>
-      <c r="D125" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E125" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="48"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
     </row>
     <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="47"/>
-      <c r="D126" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E126" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="48"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B127" s="50" t="s">
+      <c r="B127" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="47"/>
-      <c r="D127" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E127" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="48"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
     </row>
     <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="50" t="s">
+      <c r="B128" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="47"/>
-      <c r="D128" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="E128" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
-      <c r="K128" s="48"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="47"/>
-      <c r="D129" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E129" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="48"/>
-      <c r="J129" s="48"/>
-      <c r="K129" s="48"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B130" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="47"/>
-      <c r="D130" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E130" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="48"/>
-      <c r="J130" s="48"/>
-      <c r="K130" s="48"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="47"/>
-      <c r="D131" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="48"/>
-      <c r="K131" s="48"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C132" s="47"/>
-      <c r="D132" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E132" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="48"/>
-      <c r="J132" s="48"/>
-      <c r="K132" s="48"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C133" s="47"/>
-      <c r="D133" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E133" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="48"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="31"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B134" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="C134" s="47"/>
-      <c r="D134" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E134" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="48"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="31"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B135" s="50" t="s">
+      <c r="B135" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="47"/>
-      <c r="D135" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E135" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="48"/>
-      <c r="J135" s="48"/>
-      <c r="K135" s="48"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="B136" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C136" s="47"/>
-      <c r="D136" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E136" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
-      <c r="H136" s="48"/>
-      <c r="I136" s="48"/>
-      <c r="J136" s="48"/>
-      <c r="K136" s="48"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C137" s="47"/>
-      <c r="D137" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E137" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="48"/>
-      <c r="I137" s="48"/>
-      <c r="J137" s="48"/>
-      <c r="K137" s="48"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B138" s="50" t="s">
+      <c r="B138" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C138" s="47"/>
-      <c r="D138" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E138" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="48"/>
-      <c r="J138" s="48"/>
-      <c r="K138" s="48"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B139" s="50" t="s">
+      <c r="B139" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C139" s="47"/>
-      <c r="D139" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E139" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="48"/>
-      <c r="I139" s="48"/>
-      <c r="J139" s="48"/>
-      <c r="K139" s="48"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C140" s="47"/>
-      <c r="D140" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E140" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48"/>
-      <c r="K140" s="48"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="47"/>
-      <c r="D141" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E141" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="48"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="48"/>
-      <c r="K141" s="48"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E141" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C142" s="47"/>
-      <c r="D142" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E142" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
-      <c r="I142" s="48"/>
-      <c r="J142" s="48"/>
-      <c r="K142" s="48"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="31"/>
+      <c r="K142" s="31"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B143" s="50" t="s">
+      <c r="B143" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="47"/>
-      <c r="D143" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E143" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="48"/>
-      <c r="I143" s="48"/>
-      <c r="J143" s="48"/>
-      <c r="K143" s="48"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
     </row>
     <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C144" s="47"/>
-      <c r="D144" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E144" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="48"/>
-      <c r="J144" s="48"/>
-      <c r="K144" s="48"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="31"/>
+      <c r="K144" s="31"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B145" s="50" t="s">
+      <c r="B145" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="47"/>
-      <c r="D145" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E145" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F145" s="48"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="48"/>
-      <c r="I145" s="48"/>
-      <c r="J145" s="48"/>
-      <c r="K145" s="48"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="31"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="47"/>
-      <c r="D146" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E146" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="48"/>
-      <c r="J146" s="48"/>
-      <c r="K146" s="48"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C147" s="47"/>
-      <c r="D147" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E147" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F147" s="48"/>
-      <c r="G147" s="48"/>
-      <c r="H147" s="48"/>
-      <c r="I147" s="48"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="48"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B148" s="50" t="s">
+      <c r="B148" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C148" s="47"/>
-      <c r="D148" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E148" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F148" s="48"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="48"/>
-      <c r="I148" s="48"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="48"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="31"/>
     </row>
     <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B149" s="50" t="s">
+      <c r="B149" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C149" s="47"/>
-      <c r="D149" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E149" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="48"/>
-      <c r="I149" s="48"/>
-      <c r="J149" s="48"/>
-      <c r="K149" s="48"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C150" s="47"/>
-      <c r="D150" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E150" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="48"/>
-      <c r="I150" s="48"/>
-      <c r="J150" s="48"/>
-      <c r="K150" s="48"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E150" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C151" s="47"/>
-      <c r="D151" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E151" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="48"/>
-      <c r="I151" s="48"/>
-      <c r="J151" s="48"/>
-      <c r="K151" s="48"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B152" s="50" t="s">
+      <c r="B152" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C152" s="47"/>
-      <c r="D152" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E152" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="48"/>
-      <c r="I152" s="48"/>
-      <c r="J152" s="48"/>
-      <c r="K152" s="48"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E152" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B153" s="50" t="s">
+      <c r="B153" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C153" s="47"/>
-      <c r="D153" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E153" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F153" s="48"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="48"/>
-      <c r="I153" s="48"/>
-      <c r="J153" s="48"/>
-      <c r="K153" s="48"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
     </row>
     <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C154" s="47"/>
-      <c r="D154" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E154" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48"/>
-      <c r="J154" s="48"/>
-      <c r="K154" s="48"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C105:C154"/>
     <mergeCell ref="E54:K54"/>
     <mergeCell ref="L55:L102"/>
@@ -5677,13 +5686,15 @@
     <mergeCell ref="C64:K64"/>
     <mergeCell ref="E55:K63"/>
     <mergeCell ref="C103:K103"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="D106:K106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 C65:C102 C55:C63 E3:E52 C3:C52" xr:uid="{FBFD0F9A-C34D-4CD5-B2E6-DB5E9C43DC46}">
       <formula1>$P$5:$P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D102 D55:D63 F35 F3:G34 F37:G52 G35:G36 I3:I52 K3:K52 D105:E154 M65:M102 M55:M63 L10 L12 L21 L37 L42 L44:L45 L50" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D102 D55:D63 F35 F3:G34 F37:G52 G35:G36 I3:I52 K3:K52 L50 M65:M102 M55:M63 L10 L12 L21 L37 L42 L44:L45 D107:E154" xr:uid="{6A7F8F1B-C8D0-4430-8D5F-E8CA890CB06A}">
       <formula1>$P$5:$P$7</formula1>
     </dataValidation>
   </dataValidations>
